--- a/HomeWork/SemesterWork/2. SortWork/docs/AnalizOfOut.xlsx
+++ b/HomeWork/SemesterWork/2. SortWork/docs/AnalizOfOut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nita\Documents\GitHub\11-703\HomeWork\SemesterWork\2. SortWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nita\Documents\GitHub\11-703\HomeWork\SemesterWork\2. SortWork\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4642,7 +4642,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
